--- a/18F Evidence/Attachment E Approach Criteria Evidence Template Mod 5.xlsx
+++ b/18F Evidence/Attachment E Approach Criteria Evidence Template Mod 5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thartsel\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thartsel\Documents\18frepo\18F Evidence\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>https://github.com/akulasainath/18frepo/blob/master/18F%20Evidence/Local%20Deployment%20Instructions.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evidence </t>
   </si>
 </sst>
 </file>
@@ -10856,7 +10859,7 @@
   <dimension ref="A1:F998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10876,7 +10879,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
